--- a/Code/Polygons_analysis/Peachtree_GA/clustering_analysis/urban_pattern_analysis.xlsx
+++ b/Code/Polygons_analysis/Peachtree_GA/clustering_analysis/urban_pattern_analysis.xlsx
@@ -571,22 +571,22 @@
         <v>-0.3824063166799288</v>
       </c>
       <c r="N2" t="n">
-        <v>0.5053729477171437</v>
+        <v>0.5053729477193176</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.1697988151733264</v>
+        <v>-0.1697988151649434</v>
       </c>
       <c r="P2" t="n">
         <v>0.3992596148734317</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.3559563946598924</v>
+        <v>-0.3559563946583757</v>
       </c>
       <c r="R2" t="n">
         <v>-0.01280679215745821</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.2540826877925083</v>
+        <v>-0.2540826877925331</v>
       </c>
     </row>
     <row r="3">
@@ -632,22 +632,22 @@
         <v>-0.7398340419091453</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.4849281921567731</v>
+        <v>-0.4849281921531617</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.4224114939188968</v>
+        <v>-0.4224114939351753</v>
       </c>
       <c r="P3" t="n">
         <v>-0.7540084791576244</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.04400129410400825</v>
+        <v>-0.04400129411413515</v>
       </c>
       <c r="R3" t="n">
         <v>-0.4937369588666122</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.3974631560483278</v>
+        <v>-0.3974631560482376</v>
       </c>
     </row>
     <row r="4">
@@ -693,22 +693,22 @@
         <v>0.6448485751152842</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.2253504442617874</v>
+        <v>-0.225350444265202</v>
       </c>
       <c r="O4" t="n">
-        <v>0.326575338970957</v>
+        <v>0.3265753389707492</v>
       </c>
       <c r="P4" t="n">
         <v>-0.01907603596681451</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.3239631786101956</v>
+        <v>0.3239631786132358</v>
       </c>
       <c r="R4" t="n">
         <v>0.2225788042206553</v>
       </c>
       <c r="S4" t="n">
-        <v>0.3881265135571481</v>
+        <v>0.3881265135571305</v>
       </c>
     </row>
   </sheetData>
@@ -972,58 +972,58 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.5534426016692</v>
+        <v>1.553442601669598</v>
       </c>
       <c r="C2" t="n">
-        <v>1.49209240223617</v>
+        <v>1.492092402236737</v>
       </c>
       <c r="D2" t="n">
-        <v>1.345157675024573</v>
+        <v>1.345157675024656</v>
       </c>
       <c r="E2" t="n">
-        <v>1.408418551774101</v>
+        <v>1.408418551774178</v>
       </c>
       <c r="F2" t="n">
-        <v>1.06270691049644</v>
+        <v>1.062706910498197</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.9371904440787482</v>
+        <v>-0.937190444078032</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9148243325565321</v>
+        <v>0.9148243325579621</v>
       </c>
       <c r="I2" t="n">
-        <v>1.304100432582489</v>
+        <v>1.304100432582743</v>
       </c>
       <c r="J2" t="n">
-        <v>1.391787220147616</v>
+        <v>1.391787220147751</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.9801400666321468</v>
+        <v>-0.9801400666311217</v>
       </c>
       <c r="L2" t="n">
-        <v>2.092573127978591</v>
+        <v>2.092573127976318</v>
       </c>
       <c r="M2" t="n">
-        <v>0.8231444033030527</v>
+        <v>0.8231444033047643</v>
       </c>
       <c r="N2" t="n">
-        <v>0.05996803087205897</v>
+        <v>0.05996803086498983</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2266441850327268</v>
+        <v>0.2266441850328799</v>
       </c>
       <c r="P2" t="n">
-        <v>0.3109547730366985</v>
+        <v>0.3109547730388362</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.1145680617330286</v>
+        <v>0.1145680617368768</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.4265540068732119</v>
+        <v>-0.4265540068728589</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.05452873169110668</v>
+        <v>-0.05452873169163654</v>
       </c>
     </row>
     <row r="3">
@@ -1033,58 +1033,58 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.192262766528783</v>
+        <v>0.192262766530073</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1594705640921024</v>
+        <v>0.1594705640934892</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.01253462189437104</v>
+        <v>-0.01253462189390542</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.02407107609850951</v>
+        <v>-0.02407107609810023</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.4298475340018128</v>
+        <v>-0.4298475340001675</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3364666256556129</v>
+        <v>0.3364666256569072</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.2844992698476805</v>
+        <v>-0.2844992698472546</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.05029274931915054</v>
+        <v>-0.05029274931878221</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.03410278333453756</v>
+        <v>-0.03410278333417203</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3432526660120999</v>
+        <v>0.3432526660139293</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0954088961364338</v>
+        <v>0.09540889613357051</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.3177333647361865</v>
+        <v>-0.3177333647353761</v>
       </c>
       <c r="N3" t="n">
-        <v>0.02791102348374841</v>
+        <v>0.02791102347190621</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.7890792965163349</v>
+        <v>-0.7890792965083381</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.7138831361773824</v>
+        <v>-0.7138831361757161</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.5533488920757361</v>
+        <v>-0.5533488920661506</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.06628749185853071</v>
+        <v>-0.06628749185900346</v>
       </c>
       <c r="S3" t="n">
-        <v>0.7803176325169081</v>
+        <v>0.7803176325166169</v>
       </c>
     </row>
     <row r="4">
@@ -1094,58 +1094,58 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.9124056535306486</v>
+        <v>-0.9124056535300368</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.9221888136867272</v>
+        <v>-0.9221888136861617</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.281317011426556</v>
+        <v>-1.281317011426265</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.266784811845729</v>
+        <v>-1.266784811845418</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6632305311306906</v>
+        <v>0.6632305311310205</v>
       </c>
       <c r="G4" t="n">
-        <v>2.211942648020794</v>
+        <v>2.211942648023165</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2733022667555487</v>
+        <v>0.2733022667553784</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.178187023916198</v>
+        <v>-1.178187023915976</v>
       </c>
       <c r="J4" t="n">
-        <v>-1.235229544575326</v>
+        <v>-1.23522954457508</v>
       </c>
       <c r="K4" t="n">
-        <v>2.193732211714064</v>
+        <v>2.193732211716584</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.9450053726092629</v>
+        <v>-0.9450053726081711</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3455408185492281</v>
+        <v>0.3455408185491482</v>
       </c>
       <c r="N4" t="n">
-        <v>-1.187698609027235</v>
+        <v>-1.187698609044084</v>
       </c>
       <c r="O4" t="n">
-        <v>0.3104306460636287</v>
+        <v>0.310430646067611</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.8303698693860143</v>
+        <v>-0.8303698693861815</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.810859435380421</v>
+        <v>0.810859435399125</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.6283638596766699</v>
+        <v>-0.628363859676607</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9559595270746628</v>
+        <v>0.9559595270769656</v>
       </c>
     </row>
     <row r="5">
@@ -1155,58 +1155,58 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.8504247444379829</v>
+        <v>-0.8504247444409878</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.831212348738341</v>
+        <v>-0.831212348741376</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.8319228521685411</v>
+        <v>-0.8319228521688514</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.7724980454034917</v>
+        <v>-0.7724980454036592</v>
       </c>
       <c r="F5" t="n">
-        <v>1.765288935799965</v>
+        <v>1.765288935800963</v>
       </c>
       <c r="G5" t="n">
-        <v>1.029533876083288</v>
+        <v>1.029533876081545</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8732878291434978</v>
+        <v>0.8732878291452019</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.6960287719720679</v>
+        <v>-0.6960287719718599</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.7404635333002096</v>
+        <v>-0.7404635333002952</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9858427482519853</v>
+        <v>0.9858427482492605</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.3432360571263566</v>
+        <v>-0.3432360571248371</v>
       </c>
       <c r="M5" t="n">
-        <v>0.9750278709110588</v>
+        <v>0.975027870912521</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.9715773958218015</v>
+        <v>-0.9715773958196017</v>
       </c>
       <c r="O5" t="n">
-        <v>1.774195294437066</v>
+        <v>1.774195294429435</v>
       </c>
       <c r="P5" t="n">
-        <v>0.8153910042260367</v>
+        <v>0.8153910042237525</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.7012455582138</v>
+        <v>1.701245558216969</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.7762636785249755</v>
+        <v>-0.7762636785227062</v>
       </c>
       <c r="S5" t="n">
-        <v>-1.013880974826238</v>
+        <v>-1.013880974827754</v>
       </c>
     </row>
     <row r="6">
@@ -1216,58 +1216,58 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1072991613160067</v>
+        <v>0.1072991613176828</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2744124889041175</v>
+        <v>0.2744124889052877</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3214461384963692</v>
+        <v>0.3214461384967939</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2742777453094934</v>
+        <v>0.2742777453098621</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.79443956221672</v>
+        <v>-0.7944395622226003</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.497168835956527</v>
+        <v>-0.4971688359575307</v>
       </c>
       <c r="H6" t="n">
-        <v>0.656810656052086</v>
+        <v>0.6568106560454897</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4074605174934301</v>
+        <v>0.4074605174931712</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3486557296480711</v>
+        <v>0.3486557296481656</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.4426791265354803</v>
+        <v>-0.4426791265362158</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.2722387666569204</v>
+        <v>-0.2722387666532746</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6612308230814898</v>
+        <v>0.6612308230744928</v>
       </c>
       <c r="N6" t="n">
-        <v>0.6186472671078335</v>
+        <v>0.6186472671177886</v>
       </c>
       <c r="O6" t="n">
-        <v>0.7018869997906689</v>
+        <v>0.7018869998071927</v>
       </c>
       <c r="P6" t="n">
-        <v>0.97936125102976</v>
+        <v>0.9793612510271269</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.1633938915231851</v>
+        <v>0.1633938915265726</v>
       </c>
       <c r="R6" t="n">
-        <v>1.506935925874142</v>
+        <v>1.506935925872004</v>
       </c>
       <c r="S6" t="n">
-        <v>1.026106609413874</v>
+        <v>1.026106609414251</v>
       </c>
     </row>
     <row r="7">
@@ -1277,58 +1277,58 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.34109541179976</v>
+        <v>-1.341095411796864</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.237691924411026</v>
+        <v>-1.23769192440794</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.169567118739694</v>
+        <v>-1.169567118740445</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.194765155179021</v>
+        <v>-1.194765155179844</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.436239334915354</v>
+        <v>-1.436239334920018</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.02142357693143705</v>
+        <v>-0.02142357692922105</v>
       </c>
       <c r="H7" t="n">
-        <v>-1.042925114776129</v>
+        <v>-1.042925114778245</v>
       </c>
       <c r="I7" t="n">
-        <v>-1.200967510518406</v>
+        <v>-1.200967510519362</v>
       </c>
       <c r="J7" t="n">
-        <v>-1.15937386872341</v>
+        <v>-1.159373868724084</v>
       </c>
       <c r="K7" t="n">
-        <v>0.07884952382241778</v>
+        <v>0.07884952382581033</v>
       </c>
       <c r="L7" t="n">
-        <v>0.5569279065160438</v>
+        <v>0.5569279065198828</v>
       </c>
       <c r="M7" t="n">
-        <v>-1.061707181693223</v>
+        <v>-1.061707181695455</v>
       </c>
       <c r="N7" t="n">
-        <v>2.792043043550382</v>
+        <v>2.792043043557142</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.3982639642576835</v>
+        <v>-0.398263964201351</v>
       </c>
       <c r="P7" t="n">
-        <v>2.43417918398506</v>
+        <v>2.434179183991856</v>
       </c>
       <c r="Q7" t="n">
-        <v>-1.665737506630448</v>
+        <v>-1.6657375066128</v>
       </c>
       <c r="R7" t="n">
-        <v>0.02486196294706185</v>
+        <v>0.02486196294572105</v>
       </c>
       <c r="S7" t="n">
-        <v>-0.8089699392964431</v>
+        <v>-0.8089699392923773</v>
       </c>
     </row>
     <row r="8">
@@ -1338,58 +1338,58 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.5074099995353664</v>
+        <v>-0.5074099995360859</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.5919805413909355</v>
+        <v>-0.5919805413916218</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.3913404936759817</v>
+        <v>-0.3913404936761761</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.4068848854721933</v>
+        <v>-0.4068848854724024</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.5063089264843506</v>
+        <v>-0.5063089264837934</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1145765061916536</v>
+        <v>-0.1145765061927516</v>
       </c>
       <c r="H8" t="n">
-        <v>-1.216941365773597</v>
+        <v>-1.216941365772737</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.4870988591647014</v>
+        <v>-0.4870988591649098</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.4682092029905495</v>
+        <v>-0.4682092029907279</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.1175873603177991</v>
+        <v>-0.1175873603192015</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.6186009921976201</v>
+        <v>-0.6186009921981404</v>
       </c>
       <c r="M8" t="n">
-        <v>-1.206961583718958</v>
+        <v>-1.206961583718185</v>
       </c>
       <c r="N8" t="n">
-        <v>0.07981194458281092</v>
+        <v>0.07981194458842196</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.9671285780831437</v>
+        <v>-0.9671285781013016</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.6751222246357754</v>
+        <v>-0.6751222246368583</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.6920461534573877</v>
+        <v>-0.6920461534745654</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.4957251640993794</v>
+        <v>-0.495725164099457</v>
       </c>
       <c r="S8" t="n">
-        <v>-0.984779862948713</v>
+        <v>-0.9847798629492829</v>
       </c>
     </row>
     <row r="9">
@@ -1399,58 +1399,58 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.085718726791074</v>
+        <v>2.08571872678844</v>
       </c>
       <c r="C9" t="n">
-        <v>2.178806126581287</v>
+        <v>2.178806126578821</v>
       </c>
       <c r="D9" t="n">
-        <v>2.384488047848486</v>
+        <v>2.384488047847934</v>
       </c>
       <c r="E9" t="n">
-        <v>2.340906233848848</v>
+        <v>2.340906233848419</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02067454356818588</v>
+        <v>0.020674543571606</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.931962115385606</v>
+        <v>-1.931962115385623</v>
       </c>
       <c r="H9" t="n">
-        <v>1.601040485153737</v>
+        <v>1.601040485158229</v>
       </c>
       <c r="I9" t="n">
-        <v>2.447363862843161</v>
+        <v>2.447363862843217</v>
       </c>
       <c r="J9" t="n">
-        <v>2.369789742273591</v>
+        <v>2.36978974227335</v>
       </c>
       <c r="K9" t="n">
-        <v>-1.958037402470299</v>
+        <v>-1.958037402471219</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.3779418619162334</v>
+        <v>-0.3779418619162739</v>
       </c>
       <c r="M9" t="n">
-        <v>1.578406597637163</v>
+        <v>1.578406597641599</v>
       </c>
       <c r="N9" t="n">
-        <v>-1.421401087621788</v>
+        <v>-1.421401087608813</v>
       </c>
       <c r="O9" t="n">
-        <v>0.918132561554763</v>
+        <v>0.9181325615250054</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.9730850641087707</v>
+        <v>-0.9730850641105088</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.324694338366752</v>
+        <v>1.324694338349545</v>
       </c>
       <c r="R9" t="n">
-        <v>2.177028547750812</v>
+        <v>2.177028547752848</v>
       </c>
       <c r="S9" t="n">
-        <v>1.53578316067285</v>
+        <v>1.535783160672975</v>
       </c>
     </row>
   </sheetData>
@@ -1494,7 +1494,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6.617185014041681</v>
+        <v>6.617185014057369</v>
       </c>
     </row>
     <row r="3">
@@ -1507,7 +1507,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5.665076456845088</v>
+        <v>5.665076456852287</v>
       </c>
     </row>
     <row r="4">
@@ -1520,7 +1520,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5.662718490610535</v>
+        <v>5.662718490620404</v>
       </c>
     </row>
     <row r="5">
@@ -1533,7 +1533,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5.24073635986475</v>
+        <v>5.240736359863352</v>
       </c>
     </row>
     <row r="6">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5.186868260858799</v>
+        <v>5.186868260861344</v>
       </c>
     </row>
     <row r="7">
@@ -1559,7 +1559,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5.103861163586378</v>
+        <v>5.10386116358535</v>
       </c>
     </row>
     <row r="8">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5.085418640464611</v>
+        <v>5.085418640464175</v>
       </c>
     </row>
     <row r="9">
@@ -1585,7 +1585,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4.468743145381695</v>
+        <v>4.46874314536979</v>
       </c>
     </row>
     <row r="10">
@@ -1598,7 +1598,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4.459225392831484</v>
+        <v>4.459225392819153</v>
       </c>
     </row>
     <row r="11">
@@ -1611,7 +1611,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4.267945737896319</v>
+        <v>4.267945737918664</v>
       </c>
     </row>
     <row r="12">
@@ -1624,7 +1624,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3.672150424221756</v>
+        <v>3.672150424182937</v>
       </c>
     </row>
     <row r="13">
@@ -1637,7 +1637,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3.123909088672939</v>
+        <v>3.123909088689973</v>
       </c>
     </row>
     <row r="14">
@@ -1650,7 +1650,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3.036013390241874</v>
+        <v>3.036013390241032</v>
       </c>
     </row>
     <row r="15">
@@ -1663,7 +1663,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2.439229394087953</v>
+        <v>2.439229394095775</v>
       </c>
     </row>
     <row r="16">
@@ -1676,7 +1676,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2.422414883385502</v>
+        <v>2.422414883393136</v>
       </c>
     </row>
     <row r="17">
@@ -1689,7 +1689,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2.393683428092095</v>
+        <v>2.393683428085492</v>
       </c>
     </row>
     <row r="18">
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2.3366607336973</v>
+        <v>2.336660733699239</v>
       </c>
     </row>
     <row r="19">
@@ -1715,7 +1715,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2.039914791897856</v>
+        <v>2.039914791874359</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Polygons_analysis/Peachtree_GA/clustering_analysis/urban_pattern_analysis.xlsx
+++ b/Code/Polygons_analysis/Peachtree_GA/clustering_analysis/urban_pattern_analysis.xlsx
@@ -11,6 +11,10 @@
     <sheet name="Pattern_Cluster_Matrix" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Cluster_Centers" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Feature_Importance" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Polygons_Original" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Polygons_Cluster" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Classification_Compare" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Accuracy_Summary" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -535,58 +539,58 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.2973273533676468</v>
+        <v>-1.39554920554667</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.3091768188287821</v>
+        <v>-1.339675750858004</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.2590267932580847</v>
+        <v>-1.003087713956969</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.2722932291995876</v>
+        <v>-1.00683251238911</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.2481386054181366</v>
+        <v>-1.419304137328533</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1209543461416684</v>
+        <v>0.3336862312420736</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.4201308396368071</v>
+        <v>-1.401214937164565</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3134965054768988</v>
+        <v>-0.9483311005881467</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.2940659731341407</v>
+        <v>-0.9931703979756833</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.0947636121107117</v>
+        <v>0.4355781735905354</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.3471809773807956</v>
+        <v>0.8511262548493052</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.3824063166799288</v>
+        <v>-1.437680005064551</v>
       </c>
       <c r="N2" t="n">
-        <v>0.5053729477193176</v>
+        <v>2.652974415744652</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.1697988151649434</v>
+        <v>-0.3300090152845084</v>
       </c>
       <c r="P2" t="n">
-        <v>0.3992596148734317</v>
+        <v>2.575158415696501</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.3559563946583757</v>
+        <v>-1.483922484424951</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.01280679215745821</v>
+        <v>0.5130378647703585</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.2540826877925331</v>
+        <v>-0.9897239059886929</v>
       </c>
     </row>
     <row r="3">
@@ -596,58 +600,58 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.8849707748535742</v>
+        <v>-0.363758537139753</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.9070844276745053</v>
+        <v>-0.3621309890721662</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.7756553762253079</v>
+        <v>-0.338128703053894</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.7815381966833509</v>
+        <v>-0.3650869659946987</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.3946724337937732</v>
+        <v>-0.5344517991570372</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8652494547362224</v>
+        <v>0.2708811624285694</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.7524300915727612</v>
+        <v>-0.4294865509559204</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.7587193241899511</v>
+        <v>-0.3775332133267441</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.7849331752544547</v>
+        <v>-0.3713182669257488</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8372723121492031</v>
+        <v>0.2828324356966406</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.9073958914122491</v>
+        <v>-0.8341054604642666</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.7398340419091453</v>
+        <v>-0.3924695069977223</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.4849281921531617</v>
+        <v>-0.04586363094643447</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.4224114939351753</v>
+        <v>-0.2997388210430917</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.7540084791576244</v>
+        <v>-0.3600201101500624</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.04400129411413515</v>
+        <v>-0.1915772387818341</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.4937369588666122</v>
+        <v>-0.06362978434853753</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.3974631560482376</v>
+        <v>0.2484020058109477</v>
       </c>
     </row>
     <row r="4">
@@ -657,58 +661,58 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.634125206395229</v>
+        <v>0.3214341891245435</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6537591708566006</v>
+        <v>0.3150330696218832</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5544466983177759</v>
+        <v>0.2693731229226439</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5683391378925121</v>
+        <v>0.283226734236261</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3818355619843132</v>
+        <v>0.4091563133113771</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2671460410512365</v>
+        <v>-0.1688092043384919</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6825821875055833</v>
+        <v>0.3548647691944123</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5938767150616071</v>
+        <v>0.283599716722187</v>
       </c>
       <c r="J4" t="n">
-        <v>0.588456480652601</v>
+        <v>0.2849761732604428</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.2776050376833336</v>
+        <v>-0.1849740352073735</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6864676483602173</v>
+        <v>0.3319401047472029</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6448485751152842</v>
+        <v>0.3400027540053142</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.225350444265202</v>
+        <v>-0.2423656261012448</v>
       </c>
       <c r="O4" t="n">
-        <v>0.3265753389707492</v>
+        <v>0.1828703120500017</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.01907603596681451</v>
+        <v>-0.0775057864946174</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.3239631786132358</v>
+        <v>0.2441808678334113</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2225788042206553</v>
+        <v>-0.01948889430276696</v>
       </c>
       <c r="S4" t="n">
-        <v>0.3881265135571305</v>
+        <v>-0.02522861230660426</v>
       </c>
     </row>
   </sheetData>
@@ -771,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="D2" t="n">
         <v>100</v>
@@ -780,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -802,22 +806,22 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>100</v>
       </c>
       <c r="H3" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -839,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F4" t="n">
         <v>50</v>
@@ -848,7 +852,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I4" t="n">
         <v>100</v>
@@ -972,58 +976,58 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.553442601669598</v>
+        <v>1.5534426016692</v>
       </c>
       <c r="C2" t="n">
-        <v>1.492092402236737</v>
+        <v>1.49209240223617</v>
       </c>
       <c r="D2" t="n">
-        <v>1.345157675024656</v>
+        <v>1.345157675024573</v>
       </c>
       <c r="E2" t="n">
-        <v>1.408418551774178</v>
+        <v>1.408418551774101</v>
       </c>
       <c r="F2" t="n">
-        <v>1.062706910498197</v>
+        <v>1.06270691049644</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.937190444078032</v>
+        <v>-0.9371904440787482</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9148243325579621</v>
+        <v>0.9148243325565321</v>
       </c>
       <c r="I2" t="n">
-        <v>1.304100432582743</v>
+        <v>1.304100432582489</v>
       </c>
       <c r="J2" t="n">
-        <v>1.391787220147751</v>
+        <v>1.391787220147616</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.9801400666311217</v>
+        <v>-0.9801400666321468</v>
       </c>
       <c r="L2" t="n">
-        <v>2.092573127976318</v>
+        <v>2.092573127978591</v>
       </c>
       <c r="M2" t="n">
-        <v>0.8231444033047643</v>
+        <v>0.8231444033030527</v>
       </c>
       <c r="N2" t="n">
-        <v>0.05996803086498983</v>
+        <v>0.05996803087205897</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2266441850328799</v>
+        <v>0.2266441850327268</v>
       </c>
       <c r="P2" t="n">
-        <v>0.3109547730388362</v>
+        <v>0.3109547730366985</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.1145680617368768</v>
+        <v>0.1145680617330286</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.4265540068728589</v>
+        <v>-0.4265540068732119</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.05452873169163654</v>
+        <v>-0.05452873169110668</v>
       </c>
     </row>
     <row r="3">
@@ -1033,58 +1037,58 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.192262766530073</v>
+        <v>0.192262766528783</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1594705640934892</v>
+        <v>0.1594705640921024</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.01253462189390542</v>
+        <v>-0.01253462189437104</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.02407107609810023</v>
+        <v>-0.02407107609850951</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.4298475340001675</v>
+        <v>-0.4298475340018128</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3364666256569072</v>
+        <v>0.3364666256556129</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.2844992698472546</v>
+        <v>-0.2844992698476805</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.05029274931878221</v>
+        <v>-0.05029274931915054</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.03410278333417203</v>
+        <v>-0.03410278333453756</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3432526660139293</v>
+        <v>0.3432526660120999</v>
       </c>
       <c r="L3" t="n">
-        <v>0.09540889613357051</v>
+        <v>0.0954088961364338</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.3177333647353761</v>
+        <v>-0.3177333647361865</v>
       </c>
       <c r="N3" t="n">
-        <v>0.02791102347190621</v>
+        <v>0.02791102348374841</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.7890792965083381</v>
+        <v>-0.7890792965163349</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.7138831361757161</v>
+        <v>-0.7138831361773824</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.5533488920661506</v>
+        <v>-0.5533488920757361</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.06628749185900346</v>
+        <v>-0.06628749185853071</v>
       </c>
       <c r="S3" t="n">
-        <v>0.7803176325166169</v>
+        <v>0.7803176325169081</v>
       </c>
     </row>
     <row r="4">
@@ -1094,58 +1098,58 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.9124056535300368</v>
+        <v>-0.9124056535306486</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.9221888136861617</v>
+        <v>-0.9221888136867272</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.281317011426265</v>
+        <v>-1.281317011426556</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.266784811845418</v>
+        <v>-1.266784811845729</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6632305311310205</v>
+        <v>0.6632305311306906</v>
       </c>
       <c r="G4" t="n">
-        <v>2.211942648023165</v>
+        <v>2.211942648020794</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2733022667553784</v>
+        <v>0.2733022667555487</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.178187023915976</v>
+        <v>-1.178187023916198</v>
       </c>
       <c r="J4" t="n">
-        <v>-1.23522954457508</v>
+        <v>-1.235229544575326</v>
       </c>
       <c r="K4" t="n">
-        <v>2.193732211716584</v>
+        <v>2.193732211714064</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.9450053726081711</v>
+        <v>-0.9450053726092629</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3455408185491482</v>
+        <v>0.3455408185492281</v>
       </c>
       <c r="N4" t="n">
-        <v>-1.187698609044084</v>
+        <v>-1.187698609027235</v>
       </c>
       <c r="O4" t="n">
-        <v>0.310430646067611</v>
+        <v>0.3104306460636287</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.8303698693861815</v>
+        <v>-0.8303698693860143</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.810859435399125</v>
+        <v>0.810859435380421</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.628363859676607</v>
+        <v>-0.6283638596766699</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9559595270769656</v>
+        <v>0.9559595270746628</v>
       </c>
     </row>
     <row r="5">
@@ -1155,58 +1159,58 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.8504247444409878</v>
+        <v>-0.8504247444379829</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.831212348741376</v>
+        <v>-0.831212348738341</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.8319228521688514</v>
+        <v>-0.8319228521685411</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.7724980454036592</v>
+        <v>-0.7724980454034917</v>
       </c>
       <c r="F5" t="n">
-        <v>1.765288935800963</v>
+        <v>1.765288935799965</v>
       </c>
       <c r="G5" t="n">
-        <v>1.029533876081545</v>
+        <v>1.029533876083288</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8732878291452019</v>
+        <v>0.8732878291434978</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.6960287719718599</v>
+        <v>-0.6960287719720679</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.7404635333002952</v>
+        <v>-0.7404635333002096</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9858427482492605</v>
+        <v>0.9858427482519853</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.3432360571248371</v>
+        <v>-0.3432360571263566</v>
       </c>
       <c r="M5" t="n">
-        <v>0.975027870912521</v>
+        <v>0.9750278709110588</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.9715773958196017</v>
+        <v>-0.9715773958218015</v>
       </c>
       <c r="O5" t="n">
-        <v>1.774195294429435</v>
+        <v>1.774195294437066</v>
       </c>
       <c r="P5" t="n">
-        <v>0.8153910042237525</v>
+        <v>0.8153910042260367</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.701245558216969</v>
+        <v>1.7012455582138</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.7762636785227062</v>
+        <v>-0.7762636785249755</v>
       </c>
       <c r="S5" t="n">
-        <v>-1.013880974827754</v>
+        <v>-1.013880974826238</v>
       </c>
     </row>
     <row r="6">
@@ -1216,58 +1220,58 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1072991613176828</v>
+        <v>0.1072991613160067</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2744124889052877</v>
+        <v>0.2744124889041175</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3214461384967939</v>
+        <v>0.3214461384963692</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2742777453098621</v>
+        <v>0.2742777453094934</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.7944395622226003</v>
+        <v>-0.79443956221672</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.4971688359575307</v>
+        <v>-0.497168835956527</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6568106560454897</v>
+        <v>0.656810656052086</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4074605174931712</v>
+        <v>0.4074605174934301</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3486557296481656</v>
+        <v>0.3486557296480711</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.4426791265362158</v>
+        <v>-0.4426791265354803</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.2722387666532746</v>
+        <v>-0.2722387666569204</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6612308230744928</v>
+        <v>0.6612308230814898</v>
       </c>
       <c r="N6" t="n">
-        <v>0.6186472671177886</v>
+        <v>0.6186472671078335</v>
       </c>
       <c r="O6" t="n">
-        <v>0.7018869998071927</v>
+        <v>0.7018869997906689</v>
       </c>
       <c r="P6" t="n">
-        <v>0.9793612510271269</v>
+        <v>0.97936125102976</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.1633938915265726</v>
+        <v>0.1633938915231851</v>
       </c>
       <c r="R6" t="n">
-        <v>1.506935925872004</v>
+        <v>1.506935925874142</v>
       </c>
       <c r="S6" t="n">
-        <v>1.026106609414251</v>
+        <v>1.026106609413874</v>
       </c>
     </row>
     <row r="7">
@@ -1277,58 +1281,58 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.341095411796864</v>
+        <v>-1.34109541179976</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.23769192440794</v>
+        <v>-1.237691924411026</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.169567118740445</v>
+        <v>-1.169567118739694</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.194765155179844</v>
+        <v>-1.194765155179021</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.436239334920018</v>
+        <v>-1.436239334915354</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.02142357692922105</v>
+        <v>-0.02142357693143705</v>
       </c>
       <c r="H7" t="n">
-        <v>-1.042925114778245</v>
+        <v>-1.042925114776129</v>
       </c>
       <c r="I7" t="n">
-        <v>-1.200967510519362</v>
+        <v>-1.200967510518406</v>
       </c>
       <c r="J7" t="n">
-        <v>-1.159373868724084</v>
+        <v>-1.15937386872341</v>
       </c>
       <c r="K7" t="n">
-        <v>0.07884952382581033</v>
+        <v>0.07884952382241778</v>
       </c>
       <c r="L7" t="n">
-        <v>0.5569279065198828</v>
+        <v>0.5569279065160438</v>
       </c>
       <c r="M7" t="n">
-        <v>-1.061707181695455</v>
+        <v>-1.061707181693223</v>
       </c>
       <c r="N7" t="n">
-        <v>2.792043043557142</v>
+        <v>2.792043043550382</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.398263964201351</v>
+        <v>-0.3982639642576835</v>
       </c>
       <c r="P7" t="n">
-        <v>2.434179183991856</v>
+        <v>2.43417918398506</v>
       </c>
       <c r="Q7" t="n">
-        <v>-1.6657375066128</v>
+        <v>-1.665737506630448</v>
       </c>
       <c r="R7" t="n">
-        <v>0.02486196294572105</v>
+        <v>0.02486196294706185</v>
       </c>
       <c r="S7" t="n">
-        <v>-0.8089699392923773</v>
+        <v>-0.8089699392964431</v>
       </c>
     </row>
     <row r="8">
@@ -1338,58 +1342,58 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.5074099995360859</v>
+        <v>-0.5074099995353664</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.5919805413916218</v>
+        <v>-0.5919805413909355</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.3913404936761761</v>
+        <v>-0.3913404936759817</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.4068848854724024</v>
+        <v>-0.4068848854721933</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.5063089264837934</v>
+        <v>-0.5063089264843506</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1145765061927516</v>
+        <v>-0.1145765061916536</v>
       </c>
       <c r="H8" t="n">
-        <v>-1.216941365772737</v>
+        <v>-1.216941365773597</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.4870988591649098</v>
+        <v>-0.4870988591647014</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.4682092029907279</v>
+        <v>-0.4682092029905495</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.1175873603192015</v>
+        <v>-0.1175873603177991</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.6186009921981404</v>
+        <v>-0.6186009921976201</v>
       </c>
       <c r="M8" t="n">
-        <v>-1.206961583718185</v>
+        <v>-1.206961583718958</v>
       </c>
       <c r="N8" t="n">
-        <v>0.07981194458842196</v>
+        <v>0.07981194458281092</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.9671285781013016</v>
+        <v>-0.9671285780831437</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.6751222246368583</v>
+        <v>-0.6751222246357754</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.6920461534745654</v>
+        <v>-0.6920461534573877</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.495725164099457</v>
+        <v>-0.4957251640993794</v>
       </c>
       <c r="S8" t="n">
-        <v>-0.9847798629492829</v>
+        <v>-0.984779862948713</v>
       </c>
     </row>
     <row r="9">
@@ -1399,58 +1403,58 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.08571872678844</v>
+        <v>2.085718726791074</v>
       </c>
       <c r="C9" t="n">
-        <v>2.178806126578821</v>
+        <v>2.178806126581287</v>
       </c>
       <c r="D9" t="n">
-        <v>2.384488047847934</v>
+        <v>2.384488047848486</v>
       </c>
       <c r="E9" t="n">
-        <v>2.340906233848419</v>
+        <v>2.340906233848848</v>
       </c>
       <c r="F9" t="n">
-        <v>0.020674543571606</v>
+        <v>0.02067454356818588</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.931962115385623</v>
+        <v>-1.931962115385606</v>
       </c>
       <c r="H9" t="n">
-        <v>1.601040485158229</v>
+        <v>1.601040485153737</v>
       </c>
       <c r="I9" t="n">
-        <v>2.447363862843217</v>
+        <v>2.447363862843161</v>
       </c>
       <c r="J9" t="n">
-        <v>2.36978974227335</v>
+        <v>2.369789742273591</v>
       </c>
       <c r="K9" t="n">
-        <v>-1.958037402471219</v>
+        <v>-1.958037402470299</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.3779418619162739</v>
+        <v>-0.3779418619162334</v>
       </c>
       <c r="M9" t="n">
-        <v>1.578406597641599</v>
+        <v>1.578406597637163</v>
       </c>
       <c r="N9" t="n">
-        <v>-1.421401087608813</v>
+        <v>-1.421401087621788</v>
       </c>
       <c r="O9" t="n">
-        <v>0.9181325615250054</v>
+        <v>0.918132561554763</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.9730850641105088</v>
+        <v>-0.9730850641087707</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.324694338349545</v>
+        <v>1.324694338366752</v>
       </c>
       <c r="R9" t="n">
-        <v>2.177028547752848</v>
+        <v>2.177028547750812</v>
       </c>
       <c r="S9" t="n">
-        <v>1.535783160672975</v>
+        <v>1.53578316067285</v>
       </c>
     </row>
   </sheetData>
@@ -1494,7 +1498,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6.617185014057369</v>
+        <v>6.617185014041681</v>
       </c>
     </row>
     <row r="3">
@@ -1507,7 +1511,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5.665076456852287</v>
+        <v>5.665076456845088</v>
       </c>
     </row>
     <row r="4">
@@ -1520,7 +1524,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5.662718490620404</v>
+        <v>5.662718490610535</v>
       </c>
     </row>
     <row r="5">
@@ -1533,7 +1537,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5.240736359863352</v>
+        <v>5.24073635986475</v>
       </c>
     </row>
     <row r="6">
@@ -1546,7 +1550,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5.186868260861344</v>
+        <v>5.186868260858799</v>
       </c>
     </row>
     <row r="7">
@@ -1559,7 +1563,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5.10386116358535</v>
+        <v>5.103861163586378</v>
       </c>
     </row>
     <row r="8">
@@ -1572,7 +1576,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5.085418640464175</v>
+        <v>5.085418640464611</v>
       </c>
     </row>
     <row r="9">
@@ -1585,7 +1589,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4.46874314536979</v>
+        <v>4.468743145381695</v>
       </c>
     </row>
     <row r="10">
@@ -1598,7 +1602,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4.459225392819153</v>
+        <v>4.459225392831484</v>
       </c>
     </row>
     <row r="11">
@@ -1611,7 +1615,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4.267945737918664</v>
+        <v>4.267945737896319</v>
       </c>
     </row>
     <row r="12">
@@ -1624,7 +1628,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3.672150424182937</v>
+        <v>3.672150424221756</v>
       </c>
     </row>
     <row r="13">
@@ -1637,7 +1641,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3.123909088689973</v>
+        <v>3.123909088672939</v>
       </c>
     </row>
     <row r="14">
@@ -1650,7 +1654,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3.036013390241032</v>
+        <v>3.036013390241874</v>
       </c>
     </row>
     <row r="15">
@@ -1663,7 +1667,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2.439229394095775</v>
+        <v>2.439229394087953</v>
       </c>
     </row>
     <row r="16">
@@ -1676,7 +1680,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2.422414883393136</v>
+        <v>2.422414883385502</v>
       </c>
     </row>
     <row r="17">
@@ -1689,7 +1693,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2.393683428085492</v>
+        <v>2.393683428092095</v>
       </c>
     </row>
     <row r="18">
@@ -1702,7 +1706,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2.336660733699239</v>
+        <v>2.3366607336973</v>
       </c>
     </row>
     <row r="19">
@@ -1715,7 +1719,1171 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2.039914791874359</v>
+        <v>2.039914791897856</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>poly_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>subpoly_id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>original_pattern</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>cul_de_sac</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>hibrido</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>cul_de_sac</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>cul_de_sac</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>cul_de_sac</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>cul_de_sac</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>poly_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>subpoly_id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>cluster</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>cluster_pattern</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>cluster_name</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>cul_de_sac</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>cul_de_sac_alto_mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>organico_bajo_mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>organico_alto_mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>cul_de_sac</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>cul_de_sac_alto_mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>hibrido</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>hibrido</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>6</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>cul_de_sac</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>cul_de_sac_alto_mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>organico_bajo_mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>organico_bajo_mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>organico_alto_mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>cul_de_sac</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>cul_de_sac</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>organico_alto_mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>6</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>cul_de_sac</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>cul_de_sac_alto_mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>4</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>cul_de_sac</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>cul_de_sac_alto_mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>6</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>cul_de_sac</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>cul_de_sac_alto_mean</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>poly_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>subpoly_id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>original_pattern</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>cluster_pattern</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>match</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>match_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>cul_de_sac</t>
+        </is>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>No coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>cul_de_sac</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>No coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>cul_de_sac</t>
+        </is>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>No coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>hibrido</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>hibrido</t>
+        </is>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>cul_de_sac</t>
+        </is>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>No coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>cul_de_sac</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>cul_de_sac</t>
+        </is>
+      </c>
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>cul_de_sac</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>cul_de_sac</t>
+        </is>
+      </c>
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>cul_de_sac</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>cul_de_sac</t>
+        </is>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>cul_de_sac</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>cul_de_sac</t>
+        </is>
+      </c>
+      <c r="E17" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Patrón</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Exactitud (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>hibrido</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>cul_de_sac</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Polygons_analysis/Peachtree_GA/clustering_analysis/urban_pattern_analysis.xlsx
+++ b/Code/Polygons_analysis/Peachtree_GA/clustering_analysis/urban_pattern_analysis.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -535,184 +535,123 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.39554920554667</v>
+        <v>-0.2137461285812961</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.339675750858004</v>
+        <v>-0.2102876949054508</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.003087713956969</v>
+        <v>-0.1858972065324891</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.00683251238911</v>
+        <v>-0.1960212510123412</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.419304137328533</v>
+        <v>-0.1194148624730841</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3336862312420736</v>
+        <v>0.141145927214852</v>
       </c>
       <c r="H2" t="n">
-        <v>-1.401214937164565</v>
+        <v>-0.1464502380102107</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.9483311005881467</v>
+        <v>-0.185716334836152</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.9931703979756833</v>
+        <v>-0.1988863620321581</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4355781735905354</v>
+        <v>0.1497924549814097</v>
       </c>
       <c r="L2" t="n">
-        <v>0.8511262548493052</v>
+        <v>-0.3084355456766001</v>
       </c>
       <c r="M2" t="n">
-        <v>-1.437680005064551</v>
+        <v>-0.1288770083740173</v>
       </c>
       <c r="N2" t="n">
-        <v>2.652974415744652</v>
+        <v>-0.0001553782763362432</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.3300090152845084</v>
+        <v>-0.03536878839243696</v>
       </c>
       <c r="P2" t="n">
-        <v>2.575158415696501</v>
+        <v>-0.03689689207458036</v>
       </c>
       <c r="Q2" t="n">
-        <v>-1.483922484424951</v>
+        <v>-0.02147707563378787</v>
       </c>
       <c r="R2" t="n">
-        <v>0.5130378647703585</v>
+        <v>0.08296098118266371</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.9897239059886929</v>
+        <v>0.008529244490213972</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.363758537139753</v>
+        <v>1.496222900069073</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.3621309890721662</v>
+        <v>1.472013864338153</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.338128703053894</v>
+        <v>1.301280445727424</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.3650869659946987</v>
+        <v>1.372148757086392</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.5344517991570372</v>
+        <v>0.8359040373116151</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2708811624285694</v>
+        <v>-0.9880214905039633</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.4294865509559204</v>
+        <v>1.025151666071453</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3775332133267441</v>
+        <v>1.300014343853066</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.3713182669257488</v>
+        <v>1.392204534225106</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2828324356966406</v>
+        <v>-1.048547184869866</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.8341054604642666</v>
+        <v>2.159048819736201</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.3924695069977223</v>
+        <v>0.9021390586181112</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.04586363094643447</v>
+        <v>0.001087647934369107</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.2997388210430917</v>
+        <v>0.2475815187470836</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.3600201101500624</v>
+        <v>0.2582782445220702</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.1915772387818341</v>
+        <v>0.1503395294365105</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.06362978434853753</v>
+        <v>-0.5807268682786453</v>
       </c>
       <c r="S3" t="n">
-        <v>0.2484020058109477</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>organico</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.3214341891245435</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.3150330696218832</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.2693731229226439</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.283226734236261</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.4091563133113771</v>
-      </c>
-      <c r="G4" t="n">
-        <v>-0.1688092043384919</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.3548647691944123</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.283599716722187</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.2849761732604428</v>
-      </c>
-      <c r="K4" t="n">
-        <v>-0.1849740352073735</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.3319401047472029</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.3400027540053142</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-0.2423656261012448</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.1828703120500017</v>
-      </c>
-      <c r="P4" t="n">
-        <v>-0.0775057864946174</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.2441808678334113</v>
-      </c>
-      <c r="R4" t="n">
-        <v>-0.01948889430276696</v>
-      </c>
-      <c r="S4" t="n">
-        <v>-0.02522861230660426</v>
+        <v>-0.05970471143149642</v>
       </c>
     </row>
   </sheetData>
@@ -726,7 +665,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -775,35 +714,35 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="D2" t="n">
         <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F2" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H2" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -818,44 +757,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>organico</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C4" t="n">
-        <v>66.66666666666666</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>100</v>
-      </c>
-      <c r="F4" t="n">
-        <v>50</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>50</v>
-      </c>
-      <c r="I4" t="n">
-        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1780,7 +1688,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -1793,7 +1701,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -1832,7 +1740,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -1845,7 +1753,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -1858,7 +1766,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -1871,7 +1779,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -1884,7 +1792,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -1897,7 +1805,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -1923,7 +1831,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2066,12 +1974,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>organico_bajo_mean</t>
+          <t>cul_de_sac_bajo_mean</t>
         </is>
       </c>
     </row>
@@ -2108,12 +2016,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>organico_alto_mean</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2150,12 +2058,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac_alto_mean</t>
         </is>
       </c>
     </row>
@@ -2192,12 +2100,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>organico_bajo_mean</t>
+          <t>cul_de_sac_bajo_mean</t>
         </is>
       </c>
     </row>
@@ -2213,12 +2121,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>organico_bajo_mean</t>
+          <t>cul_de_sac_bajo_mean</t>
         </is>
       </c>
     </row>
@@ -2234,12 +2142,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>organico_alto_mean</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2168,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>cul_de_sac_bajo_mean</t>
         </is>
       </c>
     </row>
@@ -2276,12 +2184,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>organico_alto_mean</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2434,7 +2342,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -2443,11 +2351,11 @@
         </is>
       </c>
       <c r="E3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -2460,12 +2368,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E4" t="b">
@@ -2517,15 +2425,15 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -2538,7 +2446,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -2547,11 +2455,11 @@
         </is>
       </c>
       <c r="E7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -2564,12 +2472,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E8" t="b">
@@ -2590,7 +2498,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2599,11 +2507,11 @@
         </is>
       </c>
       <c r="E9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -2616,12 +2524,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E10" t="b">
@@ -2642,12 +2550,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E11" t="b">
@@ -2668,12 +2576,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E12" t="b">
@@ -2720,12 +2628,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E14" t="b">
@@ -2826,7 +2734,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2849,7 +2757,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -2859,11 +2767,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
@@ -2873,17 +2781,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>organico</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Polygons_analysis/Peachtree_GA/clustering_analysis/urban_pattern_analysis.xlsx
+++ b/Code/Polygons_analysis/Peachtree_GA/clustering_analysis/urban_pattern_analysis.xlsx
@@ -535,123 +535,123 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.2137461285812961</v>
+        <v>1.496222900069073</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.2102876949054508</v>
+        <v>1.472013864338153</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.1858972065324891</v>
+        <v>1.301280445727424</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.1960212510123412</v>
+        <v>1.372148757086392</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1194148624730841</v>
+        <v>0.8359040373116151</v>
       </c>
       <c r="G2" t="n">
-        <v>0.141145927214852</v>
+        <v>-0.9880214905039633</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.1464502380102107</v>
+        <v>1.025151666071453</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.185716334836152</v>
+        <v>1.300014343853066</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1988863620321581</v>
+        <v>1.392204534225106</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1497924549814097</v>
+        <v>-1.048547184869866</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.3084355456766001</v>
+        <v>2.159048819736201</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.1288770083740173</v>
+        <v>0.9021390586181112</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.0001553782763362432</v>
+        <v>0.001087647934369107</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.03536878839243696</v>
+        <v>0.2475815187470836</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.03689689207458036</v>
+        <v>0.2582782445220702</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.02147707563378787</v>
+        <v>0.1503395294365105</v>
       </c>
       <c r="R2" t="n">
-        <v>0.08296098118266371</v>
+        <v>-0.5807268682786453</v>
       </c>
       <c r="S2" t="n">
-        <v>0.008529244490213972</v>
+        <v>-0.05970471143149642</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.496222900069073</v>
+        <v>-0.2137461285812961</v>
       </c>
       <c r="C3" t="n">
-        <v>1.472013864338153</v>
+        <v>-0.2102876949054508</v>
       </c>
       <c r="D3" t="n">
-        <v>1.301280445727424</v>
+        <v>-0.1858972065324891</v>
       </c>
       <c r="E3" t="n">
-        <v>1.372148757086392</v>
+        <v>-0.1960212510123412</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8359040373116151</v>
+        <v>-0.1194148624730841</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.9880214905039633</v>
+        <v>0.141145927214852</v>
       </c>
       <c r="H3" t="n">
-        <v>1.025151666071453</v>
+        <v>-0.1464502380102107</v>
       </c>
       <c r="I3" t="n">
-        <v>1.300014343853066</v>
+        <v>-0.185716334836152</v>
       </c>
       <c r="J3" t="n">
-        <v>1.392204534225106</v>
+        <v>-0.1988863620321581</v>
       </c>
       <c r="K3" t="n">
-        <v>-1.048547184869866</v>
+        <v>0.1497924549814097</v>
       </c>
       <c r="L3" t="n">
-        <v>2.159048819736201</v>
+        <v>-0.3084355456766001</v>
       </c>
       <c r="M3" t="n">
-        <v>0.9021390586181112</v>
+        <v>-0.1288770083740173</v>
       </c>
       <c r="N3" t="n">
-        <v>0.001087647934369107</v>
+        <v>-0.0001553782763362432</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2475815187470836</v>
+        <v>-0.03536878839243696</v>
       </c>
       <c r="P3" t="n">
-        <v>0.2582782445220702</v>
+        <v>-0.03689689207458036</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1503395294365105</v>
+        <v>-0.02147707563378787</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.5807268682786453</v>
+        <v>0.08296098118266371</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.05970471143149642</v>
+        <v>0.008529244490213972</v>
       </c>
     </row>
   </sheetData>
@@ -2757,7 +2757,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -2767,7 +2767,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="B3" t="n">

--- a/Code/Polygons_analysis/Peachtree_GA/clustering_analysis/urban_pattern_analysis.xlsx
+++ b/Code/Polygons_analysis/Peachtree_GA/clustering_analysis/urban_pattern_analysis.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -600,58 +600,119 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.2137461285812961</v>
+        <v>-0.1750723709444615</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.2102876949054508</v>
+        <v>-0.1712148889628478</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.1858972065324891</v>
+        <v>-0.1385848083157829</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.1960212510123412</v>
+        <v>-0.1534397303836492</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1194148624730841</v>
+        <v>-0.2571113273087446</v>
       </c>
       <c r="G3" t="n">
-        <v>0.141145927214852</v>
+        <v>0.09269879677970194</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.1464502380102107</v>
+        <v>-0.2376135022680892</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.185716334836152</v>
+        <v>-0.1472564458731672</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.1988863620321581</v>
+        <v>-0.1579202399077993</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1497924549814097</v>
+        <v>0.1075126996717674</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.3084355456766001</v>
+        <v>-0.2679280990692958</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.1288770083740173</v>
+        <v>-0.2300761184727217</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.0001553782763362432</v>
+        <v>0.1115584340949504</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.03536878839243696</v>
+        <v>-0.1816074574768726</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.03689689207458036</v>
+        <v>-0.08930446859805012</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.02147707563378787</v>
+        <v>-0.1809446103844461</v>
       </c>
       <c r="R3" t="n">
-        <v>0.08296098118266371</v>
+        <v>0.1466300843422271</v>
       </c>
       <c r="S3" t="n">
-        <v>0.008529244490213972</v>
+        <v>0.08531794837320675</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>hibrido</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-0.7165049778601457</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-0.7182341721592889</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-0.8009583833496703</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-0.7495810191853381</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.670639180390503</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.7709586228718021</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.03867219734221</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-0.6856948913549544</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-0.731445949648821</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.6994292740067585</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-0.8350323515715559</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.18671142290914</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-1.452434939103063</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.865733909705227</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.6444016027305266</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.051600876124769</v>
+      </c>
+      <c r="R4" t="n">
+        <v>-0.7447373598916608</v>
+      </c>
+      <c r="S4" t="n">
+        <v>-0.9897239059886929</v>
       </c>
     </row>
   </sheetData>
@@ -665,7 +726,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -720,7 +781,7 @@
         <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
         <v>100</v>
@@ -738,31 +799,62 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
+          <t>hibrido</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>50</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
           <t>organico</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B4" t="n">
         <v>100</v>
       </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1792,7 +1884,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -2550,7 +2642,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2559,11 +2651,11 @@
         </is>
       </c>
       <c r="E11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -2734,7 +2826,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2781,7 +2873,17 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>100</v>
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>hibrido</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
